--- a/TP 1/table.b3.xlsx
+++ b/TP 1/table.b3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debora\Dropbox\AustralPosgrado\RegAvanzadaVirtual\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idott\Advanced_Regression\Advanced_Regression\TP 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF64AC6-EFBA-47E4-90FA-40346B6F77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F209E963-815B-47F2-A051-9E6EE8A7A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{940093F9-38E9-417C-A3C8-0EACCAF551C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{940093F9-38E9-417C-A3C8-0EACCAF551C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>y</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>x11</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -130,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,11 +425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E17BF-9626-4A9C-BE71-0B058F2472B3}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1318,8 +1315,8 @@
       <c r="C24">
         <v>185</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
+      <c r="D24">
+        <v>218</v>
       </c>
       <c r="E24">
         <v>7.6</v>
@@ -1394,8 +1391,8 @@
       <c r="C26">
         <v>86</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
+      <c r="D26">
+        <v>218</v>
       </c>
       <c r="E26">
         <v>8</v>
